--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -65,12 +65,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -436,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,8 +488,8 @@
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>44351.47052467955</v>
+      <c r="B2" s="3" t="n">
+        <v>44351.47052467593</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -508,6 +509,35 @@
       </c>
       <c r="G2" t="n">
         <v>2.764944816666667</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>44354.78134703704</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>regression_145final</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>96</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.809260433333333</v>
       </c>
     </row>
   </sheetData>
@@ -521,7 +551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +594,35 @@
         <is>
           <t>Time Taken</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>44355.69176928625</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>145_beta</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.514197133333334</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,31 +13,53 @@
     <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="164"/>
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="10.5"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FFC9211E"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -49,7 +72,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FA9A"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -62,87 +85,115 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FA9A"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -433,311 +484,1239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
+    <col width="17.68" customWidth="1" style="5" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>2021-06-04</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>44351.47052467593</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>regression_145_1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>96</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Regression_138</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.764944816666667</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="G2" s="5" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Regression_139</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>44354.78134703704</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>regression_145final</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>96</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B4" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Regression_140</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Regression_141</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>260</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>44355.86976752315</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Regression_142</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.809260433333333</v>
-      </c>
-    </row>
+      <c r="G6" s="5" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>44355.87199148148</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Regression_143</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-09</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>44356.64708844908</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Regression_144</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="6">
+      <c r="B9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="6">
+      <c r="B10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="6">
+      <c r="B11" s="8" t="n"/>
+      <c r="D11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" s="6">
+      <c r="B12" s="8" t="n"/>
+      <c r="D12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="6">
+      <c r="B13" s="8" t="n"/>
+      <c r="D13" s="9" t="n"/>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="6">
+      <c r="B14" s="8" t="n"/>
+      <c r="D14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" s="6">
+      <c r="B15" s="8" t="n"/>
+      <c r="D15" s="9" t="n"/>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" s="6">
+      <c r="A16" s="8" t="n"/>
+      <c r="B16" s="8" t="n"/>
+    </row>
+    <row r="17" ht="13.8" customHeight="1" s="6">
+      <c r="B17" s="8" t="n"/>
+    </row>
+    <row r="18" ht="13.8" customHeight="1" s="6">
+      <c r="B18" s="8" t="n"/>
+    </row>
+    <row r="19" ht="13.8" customHeight="1" s="6">
+      <c r="B19" s="8" t="n"/>
+    </row>
+    <row r="20" ht="13.8" customHeight="1" s="6">
+      <c r="B20" s="8" t="n"/>
+    </row>
+    <row r="21" ht="13.8" customHeight="1" s="6">
+      <c r="B21" s="8" t="n"/>
+    </row>
+    <row r="22" ht="13.8" customHeight="1" s="6">
+      <c r="B22" s="8" t="n"/>
+    </row>
+    <row r="23" ht="13.8" customHeight="1" s="6">
+      <c r="B23" s="8" t="n"/>
+    </row>
+    <row r="24" ht="13.8" customHeight="1" s="6">
+      <c r="B24" s="8" t="n"/>
+    </row>
+    <row r="25" ht="13.8" customHeight="1" s="6">
+      <c r="B25" s="8" t="n"/>
+    </row>
+    <row r="26" ht="13.8" customHeight="1" s="6">
+      <c r="B26" s="8" t="n"/>
+    </row>
+    <row r="27" ht="13.8" customHeight="1" s="6">
+      <c r="B27" s="8" t="n"/>
+    </row>
+    <row r="28" ht="13.8" customHeight="1" s="6">
+      <c r="B28" s="8" t="n"/>
+    </row>
+    <row r="29" ht="13.8" customHeight="1" s="6">
+      <c r="B29" s="8" t="n"/>
+    </row>
+    <row r="30" ht="13.8" customHeight="1" s="6">
+      <c r="B30" s="8" t="n"/>
+    </row>
+    <row r="31" ht="13.8" customHeight="1" s="6">
+      <c r="B31" s="8" t="n"/>
+    </row>
+    <row r="32" ht="13.8" customHeight="1" s="6"/>
+    <row r="33" ht="13.8" customHeight="1" s="6"/>
+    <row r="34" ht="13.8" customHeight="1" s="6"/>
+    <row r="35" ht="13.8" customHeight="1" s="6"/>
+    <row r="36" ht="13.8" customHeight="1" s="6"/>
+    <row r="37" ht="13.8" customHeight="1" s="6"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.58" customWidth="1" style="5" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>beta_138</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>267</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>beta_139</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>260</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>beta_140</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>beta_141</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>260</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>44355.69176928625</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>145_beta</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>96</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B6" s="8" t="n">
+        <v>44355.86976752315</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>beta_142</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>209</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>44355.87199148148</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>beta_143</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.514197133333334</v>
-      </c>
-    </row>
+      <c r="G7" s="5" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-09</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>44356.64708844908</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>beta_144</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="6">
+      <c r="B9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="6">
+      <c r="B10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="B11" s="8" t="n"/>
+      <c r="D11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="B12" s="8" t="n"/>
+      <c r="D12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="B13" s="8" t="n"/>
+      <c r="D13" s="9" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="B14" s="8" t="n"/>
+      <c r="D14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="B15" s="8" t="n"/>
+      <c r="D15" s="9" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="B16" s="8" t="n"/>
+    </row>
+    <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.58" customWidth="1" style="5" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
+    <col width="11.06" customWidth="1" style="5" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>live_138</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>live_139</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>live_140</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>live_141</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>260</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>44355.86976752315</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>live_142</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>44355.87199148148</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>live_143</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-09</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>44356.64708844908</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>live_144</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="6">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-11</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>44358.59331414352</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>pavan_demo_145</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="6">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-06-11</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>44358.65313824899</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pavan_demo_145</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>96</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="B11" s="8" t="n"/>
+      <c r="D11" s="9" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="B12" s="8" t="n"/>
+      <c r="D12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="B13" s="8" t="n"/>
+      <c r="D13" s="9" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="B14" s="8" t="n"/>
+      <c r="D14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="B15" s="8" t="n"/>
+      <c r="D15" s="9" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="B16" s="8" t="n"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.58" customWidth="1" style="5" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
+    <row r="2" ht="13.8" customHeight="1" s="6">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>india_138</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="6">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>44351.43782091435</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>india_139</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" s="6">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>india_140</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="6">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>44354.39470060185</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>india_141</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" s="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>44355.86976752315</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>india_142</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" customHeight="1" s="6">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>44355.87199148148</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>india_143</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" s="6">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-09</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>44356.64708844908</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>india_144</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" s="6">
+      <c r="B9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="6">
+      <c r="B10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="6">
+      <c r="B11" s="8" t="n"/>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" s="6">
+      <c r="B12" s="8" t="n"/>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="6">
+      <c r="B13" s="8" t="n"/>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="6">
+      <c r="B14" s="8" t="n"/>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" s="6">
+      <c r="B15" s="8" t="n"/>
+    </row>
+    <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -1386,39 +1386,85 @@
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>2021-06-11</t>
         </is>
       </c>
       <c r="B10" s="10" t="n">
-        <v>44358.65313824899</v>
-      </c>
-      <c r="C10" t="inlineStr">
+        <v>44358.65313825232</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>pavan_demo_145</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="5" t="n">
         <v>95</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>2.51</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-16</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44363.68435071759</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>live_145_hotfix</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.46</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2021-06-16</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44363.80313471368</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>live_145_hf2</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.49</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="6">
       <c r="B13" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -1440,15 +1440,15 @@
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
       <c r="B12" s="10" t="n">
-        <v>44363.80313471368</v>
-      </c>
-      <c r="C12" t="inlineStr">
+        <v>44363.80313471065</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>live_145_hf2</t>
         </is>
@@ -1456,23 +1456,69 @@
       <c r="D12" s="9" t="n">
         <v>96</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5" t="n">
         <v>94</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5" t="n">
         <v>2.49</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44364.57115336806</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>145_data_hstry</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44364.61015453223</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>145_hstry_data</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E14" t="n">
+        <v>95</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.51</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="6">
       <c r="B15" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -95,7 +96,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -127,6 +128,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,29 +735,29 @@
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="6">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
       <c r="B9" s="10" t="n">
-        <v>44365.52507181027</v>
-      </c>
-      <c r="C9" t="inlineStr">
+        <v>44365.52507180555</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>145_fnltstfrdy</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>96</v>
-      </c>
-      <c r="E9" t="n">
-        <v>96</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="D9" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5" t="n">
         <v>3.37</v>
       </c>
     </row>
@@ -1136,7 +1138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -1378,6 +1380,33 @@
       </c>
       <c r="G8" s="5" t="n">
         <v>2.54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-06-18</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>44365.77227295291</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>145_lstrnfdy</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -762,40 +761,274 @@
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="B10" s="8" t="n"/>
-      <c r="D10" s="9" t="n"/>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>44368.72372538195</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>145_mndyto</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>2.36</v>
+      </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-24</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44371.62613866898</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>146_fsttst</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.68</v>
+      </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44372.71170527778</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>146_replica</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2.56</v>
+      </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44372.83233046296</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>146_msttomst</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.92</v>
+      </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44375.56283251158</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>146_thrdcycle</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>5.78</v>
+      </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="8" t="n"/>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44375.73713454861</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>146_rgrsncycle</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.19</v>
+      </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="6">
-      <c r="B16" s="8" t="n"/>
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44376.28042498843</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>146_finalrun</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>3.57</v>
+      </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="6">
-      <c r="B17" s="8" t="n"/>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44376.30076877315</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>146_finalrun</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>2.51</v>
+      </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="6">
-      <c r="B18" s="8" t="n"/>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44376.31859157408</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>146_finalrun</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="6">
-      <c r="B19" s="8" t="n"/>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44376.32305344907</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>146_finalrun</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>2.52</v>
+      </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="6">
       <c r="B20" s="8" t="n"/>
@@ -1096,7 +1329,31 @@
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="6">
-      <c r="B9" s="8" t="n"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>44376.6019830722</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>146_beta</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="6">
       <c r="B10" s="8" t="n"/>
@@ -1138,7 +1395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
@@ -1383,30 +1640,57 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
       <c r="B9" s="11" t="n">
-        <v>44365.77227295291</v>
-      </c>
-      <c r="C9" t="inlineStr">
+        <v>44365.77227295139</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>145_lstrnfdy</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>96</v>
-      </c>
-      <c r="E9" t="n">
-        <v>96</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="D9" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5" t="n">
         <v>2.47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>44369.7998203588</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>145_hotfixtue</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>2.54</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -95,7 +96,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -104,6 +105,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -491,586 +495,610 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
-    <col width="17.68" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
-    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+    <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
+    <col width="17.68" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="6" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="8" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2021-06-11</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>44358.65313825232</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>pavan_demo_145</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E2" s="5" t="n">
+      <c r="D2" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E2" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>2.51</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44363.68435071759</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>live_145_hotfix</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>2.46</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="13.8" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44363.80313471065</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>live_145_hf2</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>2.49</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="13.8" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>44364.57115336806</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>145_data_hstry</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>2.48</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="13.8" customHeight="1" s="7">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44364.61015453704</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>145_hstry_data</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="D6" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>2.51</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="13.8" customHeight="1" s="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44365.44948273148</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>145_frdyvn</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>2.46</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="13.8" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44364.78197934028</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>145_hstrdata</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>2.54</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="6">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="13.8" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="9" t="n">
         <v>44365.52507180555</v>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>145_fnltstfrdy</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="D9" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
         <v>3.37</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="10" ht="13.8" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2021-06-21</t>
         </is>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="9" t="n">
         <v>44368.72372538195</v>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>145_mndyto</t>
         </is>
       </c>
-      <c r="D10" s="9" t="n">
-        <v>96</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="n">
+      <c r="D10" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>2.36</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="11" ht="13.8" customHeight="1" s="7">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2021-06-24</t>
         </is>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="9" t="n">
         <v>44371.62613866898</v>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>146_fsttst</t>
         </is>
       </c>
-      <c r="D11" s="9" t="n">
-        <v>96</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="n">
+      <c r="D11" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
         <v>2.68</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="12" ht="13.8" customHeight="1" s="7">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2021-06-25</t>
         </is>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="9" t="n">
         <v>44372.71170527778</v>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>146_replica</t>
         </is>
       </c>
-      <c r="D12" s="9" t="n">
-        <v>96</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="n">
+      <c r="D12" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
         <v>2.56</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="13" ht="13.8" customHeight="1" s="7">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>2021-06-25</t>
         </is>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="9" t="n">
         <v>44372.83233046296</v>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>146_msttomst</t>
         </is>
       </c>
-      <c r="D13" s="9" t="n">
-        <v>96</v>
-      </c>
-      <c r="E13" s="5" t="n">
+      <c r="D13" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E13" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="6" t="n">
         <v>2.92</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="14" ht="13.8" customHeight="1" s="7">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2021-06-28</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="9" t="n">
         <v>44375.56283251158</v>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>146_thrdcycle</t>
         </is>
       </c>
-      <c r="D14" s="9" t="n">
-        <v>96</v>
-      </c>
-      <c r="E14" s="5" t="n">
+      <c r="D14" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E14" s="6" t="n">
         <v>82</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="6" t="n">
         <v>5.78</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="A15" s="8" t="inlineStr">
+    <row r="15" ht="13.8" customHeight="1" s="7">
+      <c r="A15" s="9" t="inlineStr">
         <is>
           <t>2021-06-28</t>
         </is>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="9" t="n">
         <v>44375.73713454861</v>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>146_rgrsncycle</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E15" s="5" t="n">
+      <c r="D15" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="6" t="n">
         <v>3.19</v>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="6">
-      <c r="A16" s="5" t="inlineStr">
+    <row r="16" ht="13.8" customHeight="1" s="7">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="9" t="n">
         <v>44376.28042498843</v>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>146_finalrun</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E16" s="5" t="n">
+      <c r="D16" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E16" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="6" t="n">
         <v>3.57</v>
       </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="6">
-      <c r="A17" s="5" t="inlineStr">
+    <row r="17" ht="13.8" customHeight="1" s="7">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="9" t="n">
         <v>44376.30076877315</v>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>146_finalrun</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E17" s="5" t="n">
+      <c r="D17" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E17" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="6" t="n">
         <v>2.51</v>
       </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="6">
-      <c r="A18" s="5" t="inlineStr">
+    <row r="18" ht="13.8" customHeight="1" s="7">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="9" t="n">
         <v>44376.31859157408</v>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>146_finalrun</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E18" s="5" t="n">
+      <c r="D18" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="6" t="n">
         <v>2.55</v>
       </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="6">
-      <c r="A19" s="5" t="inlineStr">
+    <row r="19" ht="13.8" customHeight="1" s="7">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="9" t="n">
         <v>44376.32305344907</v>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>146_finalrun</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="n">
+      <c r="D19" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>2.52</v>
       </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="6">
-      <c r="B20" s="8" t="n"/>
-    </row>
-    <row r="21" ht="13.8" customHeight="1" s="6">
-      <c r="B21" s="8" t="n"/>
-    </row>
-    <row r="22" ht="13.8" customHeight="1" s="6">
-      <c r="B22" s="8" t="n"/>
-    </row>
-    <row r="23" ht="13.8" customHeight="1" s="6">
-      <c r="B23" s="8" t="n"/>
-    </row>
-    <row r="24" ht="13.8" customHeight="1" s="6">
-      <c r="B24" s="8" t="n"/>
-    </row>
-    <row r="25" ht="13.8" customHeight="1" s="6">
-      <c r="B25" s="8" t="n"/>
-    </row>
-    <row r="26" ht="13.8" customHeight="1" s="6">
-      <c r="B26" s="8" t="n"/>
-    </row>
-    <row r="27" ht="13.8" customHeight="1" s="6">
-      <c r="B27" s="8" t="n"/>
-    </row>
-    <row r="28" ht="13.8" customHeight="1" s="6">
-      <c r="B28" s="8" t="n"/>
-    </row>
-    <row r="29" ht="13.8" customHeight="1" s="6">
-      <c r="B29" s="8" t="n"/>
-    </row>
-    <row r="30" ht="13.8" customHeight="1" s="6">
-      <c r="B30" s="8" t="n"/>
-    </row>
-    <row r="31" ht="13.8" customHeight="1" s="6"/>
-    <row r="32" ht="13.8" customHeight="1" s="6"/>
-    <row r="33" ht="13.8" customHeight="1" s="6"/>
-    <row r="34" ht="13.8" customHeight="1" s="6"/>
-    <row r="35" ht="13.8" customHeight="1" s="6"/>
-    <row r="36" ht="13.8" customHeight="1" s="6"/>
-    <row r="1048575" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="6"/>
+    <row r="20" ht="13.8" customHeight="1" s="7">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-06</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>44383.76769981482</v>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="21" ht="13.8" customHeight="1" s="7">
+      <c r="B21" s="9" t="n"/>
+    </row>
+    <row r="22" ht="13.8" customHeight="1" s="7">
+      <c r="B22" s="9" t="n"/>
+    </row>
+    <row r="23" ht="13.8" customHeight="1" s="7">
+      <c r="B23" s="9" t="n"/>
+    </row>
+    <row r="24" ht="13.8" customHeight="1" s="7">
+      <c r="B24" s="9" t="n"/>
+    </row>
+    <row r="25" ht="13.8" customHeight="1" s="7">
+      <c r="B25" s="9" t="n"/>
+    </row>
+    <row r="26" ht="13.8" customHeight="1" s="7">
+      <c r="B26" s="9" t="n"/>
+    </row>
+    <row r="27" ht="13.8" customHeight="1" s="7">
+      <c r="B27" s="9" t="n"/>
+    </row>
+    <row r="28" ht="13.8" customHeight="1" s="7">
+      <c r="B28" s="9" t="n"/>
+    </row>
+    <row r="29" ht="13.8" customHeight="1" s="7">
+      <c r="B29" s="9" t="n"/>
+    </row>
+    <row r="30" ht="13.8" customHeight="1" s="7">
+      <c r="B30" s="9" t="n"/>
+    </row>
+    <row r="31" ht="13.8" customHeight="1" s="7"/>
+    <row r="32" ht="13.8" customHeight="1" s="7"/>
+    <row r="33" ht="13.8" customHeight="1" s="7"/>
+    <row r="34" ht="13.8" customHeight="1" s="7"/>
+    <row r="35" ht="13.8" customHeight="1" s="7"/>
+    <row r="36" ht="13.8" customHeight="1" s="7"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="7"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1086,302 +1114,395 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
-    <col width="16.24" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
-    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+    <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
+    <col width="16.24" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="6" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="8" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2021-06-11</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>44358.65313825232</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>pavan_demo_145</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E2" s="5" t="n">
+      <c r="D2" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E2" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>2.51</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="13.8" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44363.68435071759</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>live_145_hotfix</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>2.46</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44363.80313471065</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>live_145_hf2</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>2.49</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>44364.57115336806</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>145_data_hstry</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>2.48</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="7">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44364.61015453704</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>145_hstry_data</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="D6" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>2.51</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44365.44948273148</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>145_frdyvn</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>2.46</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44364.78197934028</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>145_hstrdata</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>2.54</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="6">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>2021-06-18</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>44365.77227295139</v>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>145_lstrnfdy</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>44369.7998203588</v>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>145_hotfixtue</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="7">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
-        <v>44376.6019830722</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>146_beta</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>96</v>
-      </c>
-      <c r="E9" t="n">
-        <v>96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="6">
-      <c r="B10" s="8" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="6">
-      <c r="B16" s="8" t="n"/>
-    </row>
-    <row r="1048576" ht="15" customHeight="1" s="6"/>
+      <c r="B11" s="9" t="n">
+        <v>44376.86358976852</v>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>146_livetst</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="7">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-02</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>44379.662565625</v>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="7">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-08</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>44385.3391755787</v>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>146_earlyip</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="7">
+      <c r="B14" s="9" t="n"/>
+      <c r="D14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="7">
+      <c r="B15" s="9" t="n"/>
+      <c r="D15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="7">
+      <c r="B16" s="9" t="n"/>
+    </row>
+    <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1395,312 +1516,852 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
-    <col width="16.24" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
-    <col width="11.06" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+    <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
+    <col width="16.24" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="6" min="6" max="6"/>
+    <col width="11.06" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="8" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2021-06-11</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>44358.65313825232</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>pavan_demo_145</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E2" s="5" t="n">
+      <c r="D2" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E2" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>2.51</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44363.68435071759</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>live_145_hotfix</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>2.46</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44363.80313471065</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>live_145_hf2</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>2.49</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="15" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>44364.57115336806</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>145_data_hstry</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>2.48</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="7">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44364.61015453704</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>145_hstry_data</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="D6" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>2.51</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44365.44948273148</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>145_frdyvn</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>2.46</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44364.78197934028</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>145_hstrdata</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>2.54</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="9" ht="15" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="9" t="n">
         <v>44365.77227295139</v>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>145_lstrnfdy</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="D9" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
         <v>2.47</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="10" ht="15" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>2021-06-22</t>
         </is>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="9" t="n">
         <v>44369.7998203588</v>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>145_hotfixtue</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="n">
+      <c r="D10" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>2.54</v>
       </c>
     </row>
-    <row r="1048569" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048570" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048571" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048572" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048573" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048574" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048575" ht="12.8" customHeight="1" s="6"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="6"/>
+    <row r="11" ht="15" customHeight="1" s="7">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>44376.86358976852</v>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>146_livetst</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="7">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-02</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>44379.662565625</v>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="7">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-08</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>44385.3391755787</v>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>146_earlyip</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="7">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>44389.56227641203</v>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>sd232</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" s="7">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>44389.56395414352</v>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>aas311</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" s="7">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>44389.56962996528</v>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>ss131</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" ht="13.8" customHeight="1" s="7">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>44389.57431627315</v>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>3456f</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B18" s="12" t="n">
+        <v>44389.57793695602</v>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B19" s="12" t="n">
+        <v>44389.58453673611</v>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B20" s="12" t="n">
+        <v>44389.75633987269</v>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>asassa22323</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B21" s="12" t="n">
+        <v>44389.75947505787</v>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>2w2</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n">
+        <v>44389.7767405324</v>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B23" s="12" t="n">
+        <v>44389.77913157408</v>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B24" s="12" t="n">
+        <v>44389.78019869213</v>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>6754</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="n">
+        <v>44389.7842475</v>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>224dd</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="n">
+        <v>44389.78693991898</v>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>567j</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n">
+        <v>44389.78825616898</v>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>5654hh</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-12</t>
+        </is>
+      </c>
+      <c r="B28" s="12" t="n">
+        <v>44389.79082892361</v>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>aa234</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-14</t>
+        </is>
+      </c>
+      <c r="B29" s="12" t="n">
+        <v>44391.57818842593</v>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>232sd</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2021-07-14</t>
+        </is>
+      </c>
+      <c r="B30" s="12" t="n">
+        <v>44391.59395385574</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>d23j4</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>96</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>96</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="1048569" ht="12.8" customHeight="1" s="7"/>
+    <row r="1048570" ht="12.8" customHeight="1" s="7"/>
+    <row r="1048571" ht="12.8" customHeight="1" s="7"/>
+    <row r="1048572" ht="12.8" customHeight="1" s="7"/>
+    <row r="1048573" ht="12.8" customHeight="1" s="7"/>
+    <row r="1048574" ht="12.8" customHeight="1" s="7"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="7"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1717,269 +2378,389 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
-    <col width="16.24" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.96" customWidth="1" style="5" min="4" max="4"/>
-    <col width="10.51" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.720000000000001" customWidth="1" style="5" min="6" max="6"/>
-    <col width="19.44" customWidth="1" style="5" min="7" max="7"/>
-    <col width="9.140000000000001" customWidth="1" style="5" min="8" max="1024"/>
+    <col width="11.17" customWidth="1" style="6" min="1" max="1"/>
+    <col width="19.44" customWidth="1" style="6" min="2" max="2"/>
+    <col width="16.24" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.96" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.51" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.720000000000001" customWidth="1" style="6" min="6" max="6"/>
+    <col width="19.44" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.140000000000001" customWidth="1" style="6" min="8" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="7">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>Run Date</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Run Time</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Sprint Name</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Total Cases</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>Pass Cases</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Fail Cases</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Time Taken</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="6">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="7">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>2021-06-11</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>44358.65313825232</v>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>pavan_demo_145</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E2" s="5" t="n">
+      <c r="D2" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E2" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="6" t="n">
         <v>2.51</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="6">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="13.8" customHeight="1" s="7">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>44363.68435071759</v>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>live_145_hotfix</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <v>2.46</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="6">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="13.8" customHeight="1" s="7">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>44363.80313471065</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>live_145_hf2</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <v>2.49</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="6">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="5" ht="13.8" customHeight="1" s="7">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>44364.57115336806</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>145_data_hstry</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E5" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <v>2.48</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="6" ht="13.8" customHeight="1" s="7">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>44364.61015453704</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>145_hstry_data</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="D6" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <v>2.51</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="6">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="7" ht="13.8" customHeight="1" s="7">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>44365.44948273148</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>145_frdyvn</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="D7" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>2.46</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="6">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="8" ht="13.8" customHeight="1" s="7">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>44364.78197934028</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>145_hstrdata</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="D8" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>2.54</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="6">
-      <c r="B9" s="8" t="n"/>
-    </row>
-    <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="B10" s="8" t="n"/>
-    </row>
-    <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-    </row>
-    <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-    </row>
-    <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-    </row>
-    <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-    </row>
-    <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-    </row>
-    <row r="1048576" ht="15" customHeight="1" s="6"/>
+    <row r="9" ht="13.8" customHeight="1" s="7">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>2021-06-18</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>44365.77227295139</v>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>145_lstrnfdy</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" s="7">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>44369.7998203588</v>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>145_hotfixtue</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" customHeight="1" s="7">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>44376.86358976852</v>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>146_livetst</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" s="7">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-02</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>44379.662565625</v>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="7">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-08</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>44385.3391755787</v>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>146_earlyip</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="7">
+      <c r="B14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" s="7">
+      <c r="B15" s="9" t="n"/>
+    </row>
+    <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -96,7 +95,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -109,10 +108,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -131,7 +130,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +493,7 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1062,19 +1060,139 @@
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="7">
-      <c r="B21" s="9" t="n"/>
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-20</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>44397.72390759259</v>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>147_firsttest</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>3.02</v>
+      </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="7">
-      <c r="B22" s="9" t="n"/>
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>44399.65487834491</v>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>147_tolive</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="7">
-      <c r="B23" s="9" t="n"/>
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>2021-09-03</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>44442.49564600694</v>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>149_regression</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>3.42</v>
+      </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="7">
-      <c r="B24" s="9" t="n"/>
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>2021-10-06</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>44475.71326068287</v>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>151_regression</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="7">
-      <c r="B25" s="9" t="n"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2021-10-07</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>44476.38135984092</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>151_fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>96</v>
+      </c>
+      <c r="E25" t="n">
+        <v>96</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.64</v>
+      </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="7">
       <c r="B26" s="9" t="n"/>
@@ -1114,7 +1232,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1492,8 +1610,31 @@
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="7">
-      <c r="B14" s="9" t="n"/>
-      <c r="D14" s="10" t="n"/>
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>44424.56088603009</v>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>148_beta</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>96</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>3.54</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="7">
       <c r="B15" s="9" t="n"/>
@@ -1519,7 +1660,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1898,462 +2039,103 @@
     <row r="14" ht="13.8" customHeight="1" s="7">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>2021-08-16</t>
         </is>
       </c>
       <c r="B14" s="11" t="n">
-        <v>44389.56227641203</v>
+        <v>44424.91015049769</v>
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>sd232</t>
+          <t>148_live</t>
         </is>
       </c>
       <c r="D14" s="6" t="n">
         <v>96</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.38</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="7">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>2021-08-24</t>
         </is>
       </c>
       <c r="B15" s="11" t="n">
-        <v>44389.56395414352</v>
+        <v>44432.76787532408</v>
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>aas311</t>
+          <t>148_htftw</t>
         </is>
       </c>
       <c r="D15" s="6" t="n">
         <v>96</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.59</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="7">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B16" s="11" t="n">
-        <v>44389.56962996528</v>
-      </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>ss131</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="B16" s="9" t="n"/>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="7">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B17" s="11" t="n">
-        <v>44389.57431627315</v>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>3456f</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B18" s="12" t="n">
-        <v>44389.57793695602</v>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>2134</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B19" s="12" t="n">
-        <v>44389.58453673611</v>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>2323</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B20" s="12" t="n">
-        <v>44389.75633987269</v>
-      </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>asassa22323</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B21" s="12" t="n">
-        <v>44389.75947505787</v>
-      </c>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>2w2</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B22" s="12" t="n">
-        <v>44389.7767405324</v>
-      </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>2123</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B23" s="12" t="n">
-        <v>44389.77913157408</v>
-      </c>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>432</t>
-        </is>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B24" s="12" t="n">
-        <v>44389.78019869213</v>
-      </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>6754</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G24" s="6" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="n">
-        <v>44389.7842475</v>
-      </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>224dd</t>
-        </is>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B26" s="12" t="n">
-        <v>44389.78693991898</v>
-      </c>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>567j</t>
-        </is>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B27" s="12" t="n">
-        <v>44389.78825616898</v>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>5654hh</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-12</t>
-        </is>
-      </c>
-      <c r="B28" s="12" t="n">
-        <v>44389.79082892361</v>
-      </c>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t>aa234</t>
-        </is>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G28" s="6" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>2021-07-14</t>
-        </is>
-      </c>
-      <c r="B29" s="12" t="n">
-        <v>44391.57818842593</v>
-      </c>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>232sd</t>
-        </is>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2021-07-14</t>
-        </is>
-      </c>
-      <c r="B30" s="12" t="n">
-        <v>44391.59395385574</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>d23j4</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>96</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>96</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3.33</v>
-      </c>
-    </row>
+      <c r="B17" s="9" t="n"/>
+    </row>
+    <row r="18" ht="13.8" customHeight="1" s="7">
+      <c r="B18" s="9" t="n"/>
+    </row>
+    <row r="19" ht="13.8" customHeight="1" s="7">
+      <c r="B19" s="9" t="n"/>
+    </row>
+    <row r="20" ht="13.8" customHeight="1" s="7">
+      <c r="B20" s="9" t="n"/>
+    </row>
+    <row r="21" ht="13.8" customHeight="1" s="7">
+      <c r="B21" s="9" t="n"/>
+    </row>
+    <row r="22" ht="13.8" customHeight="1" s="7">
+      <c r="B22" s="9" t="n"/>
+    </row>
+    <row r="23" ht="13.8" customHeight="1" s="7">
+      <c r="B23" s="9" t="n"/>
+    </row>
+    <row r="24" ht="13.8" customHeight="1" s="7">
+      <c r="B24" s="9" t="n"/>
+    </row>
+    <row r="25" ht="13.8" customHeight="1" s="7">
+      <c r="B25" s="9" t="n"/>
+    </row>
+    <row r="26" ht="13.8" customHeight="1" s="7">
+      <c r="B26" s="9" t="n"/>
+    </row>
+    <row r="27" ht="13.8" customHeight="1" s="7">
+      <c r="B27" s="9" t="n"/>
+    </row>
+    <row r="28" ht="13.8" customHeight="1" s="7">
+      <c r="B28" s="9" t="n"/>
+    </row>
+    <row r="29" ht="13.8" customHeight="1" s="7">
+      <c r="B29" s="9" t="n"/>
+    </row>
+    <row r="30" ht="13.8" customHeight="1" s="7">
+      <c r="B30" s="9" t="n"/>
+    </row>
+    <row r="31" ht="13.8" customHeight="1" s="7"/>
     <row r="1048569" ht="12.8" customHeight="1" s="7"/>
     <row r="1048570" ht="12.8" customHeight="1" s="7"/>
     <row r="1048571" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -1168,37 +1168,85 @@
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="7">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>2021-10-07</t>
         </is>
       </c>
       <c r="B25" s="11" t="n">
-        <v>44476.38135984092</v>
-      </c>
-      <c r="C25" t="inlineStr">
+        <v>44476.38135983796</v>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>151_fnlrgsn</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>96</v>
-      </c>
-      <c r="E25" t="n">
-        <v>96</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="D25" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="n">
         <v>2.64</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="7">
-      <c r="B26" s="9" t="n"/>
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>44495.65899979167</v>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>152_fstcycle</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>3.04</v>
+      </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="7">
-      <c r="B27" s="9" t="n"/>
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>44497.39866228009</v>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>152_fnlrgrsn</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="7">
       <c r="B28" s="9" t="n"/>
@@ -1637,8 +1685,31 @@
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="7">
-      <c r="B15" s="9" t="n"/>
-      <c r="D15" s="10" t="n"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>44497.70868983068</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>152_betachgs</t>
+        </is>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" t="n">
+        <v>88</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.03</v>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="7">
       <c r="B16" s="9" t="n"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -95,7 +96,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -130,6 +131,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -1249,20 +1251,302 @@
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="7">
-      <c r="B28" s="9" t="n"/>
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>2021-11-17</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>44517.62722240741</v>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>153rsgn</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>5.51</v>
+      </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="7">
-      <c r="B29" s="9" t="n"/>
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>44518.44624189815</v>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>153fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>3.79</v>
+      </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="7">
-      <c r="B30" s="9" t="n"/>
-    </row>
-    <row r="31" ht="13.8" customHeight="1" s="7"/>
-    <row r="32" ht="13.8" customHeight="1" s="7"/>
-    <row r="33" ht="13.8" customHeight="1" s="7"/>
-    <row r="34" ht="13.8" customHeight="1" s="7"/>
-    <row r="35" ht="13.8" customHeight="1" s="7"/>
-    <row r="36" ht="13.8" customHeight="1" s="7"/>
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>44536.46225854167</v>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>154_fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="31" ht="13.8" customHeight="1" s="7">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="n">
+        <v>44553.45956702546</v>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>155_fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="32" ht="13.8" customHeight="1" s="7">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="B32" s="12" t="n">
+        <v>44564.65290826389</v>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>lodash</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="33" ht="13.8" customHeight="1" s="7">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="n">
+        <v>44580.7740159838</v>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>165_secondcyc</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="34" ht="13.8" customHeight="1" s="7">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="n">
+        <v>44581.41910101852</v>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>156_fnlrsgn</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="35" ht="13.8" customHeight="1" s="7">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="n">
+        <v>44589.59868732639</v>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>156audit</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="36" ht="13.8" customHeight="1" s="7">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="B36" s="12" t="n">
+        <v>44589.61023064815</v>
+      </c>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>156audit</t>
+        </is>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="n">
+        <v>44599.80154394676</v>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>secondcycle_157</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B38" s="12" t="n">
+        <v>44600.43534501157</v>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>157_fnl</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
@@ -1278,7 +1562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -1685,15 +1969,15 @@
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="7">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
       <c r="B15" s="11" t="n">
-        <v>44497.70868983068</v>
-      </c>
-      <c r="C15" t="inlineStr">
+        <v>44497.70868982639</v>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>152_betachgs</t>
         </is>
@@ -1701,18 +1985,150 @@
       <c r="D15" s="10" t="n">
         <v>96</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="6" t="n">
         <v>6.03</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="7">
-      <c r="B16" s="9" t="n"/>
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>44518.59836181713</v>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>153_beta</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="n">
+        <v>44536.5597587037</v>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>154_beta</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B18" s="12" t="n">
+        <v>44553.5332280787</v>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>155_beta</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B19" s="12" t="n">
+        <v>44581.5491875</v>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>156_beta</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B20" s="12" t="n">
+        <v>44600.65874288514</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>157_beta</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>96</v>
+      </c>
+      <c r="E20" t="n">
+        <v>94</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.21</v>
+      </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
@@ -2162,16 +2578,112 @@
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="7">
-      <c r="B16" s="9" t="n"/>
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>2021-11-23</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>44523.45962076389</v>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>153_live</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="7">
-      <c r="B17" s="9" t="n"/>
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>44536.88390112269</v>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>154_live</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>2.82</v>
+      </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="7">
-      <c r="B18" s="9" t="n"/>
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>44553.82198813657</v>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>155_live</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="7">
-      <c r="B19" s="9" t="n"/>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>44581.83127631945</v>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>156_live</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>4.02</v>
+      </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="7">
       <c r="B20" s="9" t="n"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -493,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -1547,6 +1546,222 @@
         <v>3.06</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="n">
+        <v>44622.68955722222</v>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>158scndcycle</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B40" s="12" t="n">
+        <v>44623.45134667824</v>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>158fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-24</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="n">
+        <v>44644.73669685185</v>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>159fstcycle</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="B42" s="12" t="n">
+        <v>44645.66878927084</v>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>159scndcycle</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="n">
+        <v>44648.43150833333</v>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>159fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="B44" s="12" t="n">
+        <v>44659.64616082176</v>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>160fnlcould</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="n">
+        <v>44659.7413572338</v>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>160fnlcould</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B46" s="12" t="n">
+        <v>44663.4147778125</v>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>160fnltest</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
@@ -1562,7 +1777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -2104,30 +2319,111 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>2022-02-08</t>
         </is>
       </c>
       <c r="B20" s="12" t="n">
-        <v>44600.65874288514</v>
-      </c>
-      <c r="C20" t="inlineStr">
+        <v>44600.65874288195</v>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>157_beta</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>96</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E20" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="6" t="n">
         <v>3.21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B21" s="12" t="n">
+        <v>44623.55305136574</v>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>158_beta</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n">
+        <v>44648.56485938658</v>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>159beta</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B23" s="12" t="n">
+        <v>44663.56964787037</v>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>160_beta</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>2.66</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
@@ -2686,16 +2982,112 @@
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="7">
-      <c r="B20" s="9" t="n"/>
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>44623.8716280787</v>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>158_live</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>3.41</v>
+      </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="7">
-      <c r="B21" s="9" t="n"/>
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>44635.82748592593</v>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>htfx158</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>2.98</v>
+      </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="7">
-      <c r="B22" s="9" t="n"/>
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>44648.82258050926</v>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>159live</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>3.74</v>
+      </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="7">
-      <c r="B23" s="9" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>44663.82056515843</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>160_live</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>96</v>
+      </c>
+      <c r="E23" t="n">
+        <v>96</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="7">
       <c r="B24" s="9" t="n"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -1762,6 +1762,168 @@
         <v>2.63</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="n">
+        <v>44736.68727159722</v>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>163_flowwiintt</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="n">
+        <v>44739.70586074074</v>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>163_finalrun</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="n">
+        <v>44740.34659350695</v>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>163_relday</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B50" s="12" t="n">
+        <v>44755.43697425926</v>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>164_fstcycle</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="n">
+        <v>44755.6207227662</v>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>164_scndcycle</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B52" s="12" t="n">
+        <v>44756.50819380787</v>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>164finalrun</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
@@ -1777,7 +1939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -2424,6 +2586,60 @@
       </c>
       <c r="G23" s="6" t="n">
         <v>2.66</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B24" s="12" t="n">
+        <v>44740.52374876157</v>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>163_beta</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="n">
+        <v>44756.54683318287</v>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>164_beta</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>2.34</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
@@ -3063,37 +3279,85 @@
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="7">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
       <c r="B23" s="11" t="n">
-        <v>44663.82056515843</v>
-      </c>
-      <c r="C23" t="inlineStr">
+        <v>44663.82056516204</v>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>160_live</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>96</v>
-      </c>
-      <c r="E23" t="n">
-        <v>96</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="D23" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="n">
         <v>2.37</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="7">
-      <c r="B24" s="9" t="n"/>
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>44740.8559434838</v>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>163_live</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>3.08</v>
+      </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="7">
-      <c r="B25" s="9" t="n"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>44756.82067131381</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>164_live</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>96</v>
+      </c>
+      <c r="E25" t="n">
+        <v>96</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.38</v>
+      </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="7">
       <c r="B26" s="9" t="n"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -1924,6 +1924,141 @@
         <v>2.66</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B53" s="12" t="n">
+        <v>44775.66379868056</v>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>165_fstcycle</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B54" s="12" t="n">
+        <v>44776.69014003472</v>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>165_scndcycle</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B55" s="12" t="n">
+        <v>44777.39273803241</v>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>165_finalrun</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E55" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F55" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="6" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B56" s="12" t="n">
+        <v>44795.67178451389</v>
+      </c>
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>166fstcycle</t>
+        </is>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G56" s="6" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B57" s="12" t="n">
+        <v>44796.90697054398</v>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>166cyclescnd</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
@@ -1939,7 +2074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -2640,6 +2775,60 @@
       </c>
       <c r="G25" s="6" t="n">
         <v>2.34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="n">
+        <v>44777.56231642361</v>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>165beta</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n">
+        <v>44797.54109481481</v>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>166_beta</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
@@ -3333,37 +3522,85 @@
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="7">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
       <c r="B25" s="11" t="n">
-        <v>44756.82067131381</v>
-      </c>
-      <c r="C25" t="inlineStr">
+        <v>44756.82067131944</v>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>164_live</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>96</v>
-      </c>
-      <c r="E25" t="n">
-        <v>96</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="D25" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="n">
         <v>2.38</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="7">
-      <c r="B26" s="9" t="n"/>
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>44777.81690030092</v>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>165_live</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>4.13</v>
+      </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="7">
-      <c r="B27" s="9" t="n"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>44797.92316747576</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>166_live</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>96</v>
+      </c>
+      <c r="E27" t="n">
+        <v>96</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="7">
       <c r="B28" s="9" t="n"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -492,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -2059,6 +2060,87 @@
         <v>2.49</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B58" s="12" t="n">
+        <v>44820.64906803241</v>
+      </c>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>fstcyc167</t>
+        </is>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E58" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="n">
+        <v>44823.63090788195</v>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>scndcycle167</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E59" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="F59" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" s="6" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B60" s="12" t="n">
+        <v>44824.38291736111</v>
+      </c>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
+          <t>finalrun167</t>
+        </is>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E60" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="6" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
@@ -2074,7 +2156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -2829,6 +2911,33 @@
       </c>
       <c r="G27" s="6" t="n">
         <v>2.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B28" s="12" t="n">
+        <v>44824.52306395844</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>beta167</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>96</v>
+      </c>
+      <c r="E28" t="n">
+        <v>96</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.29</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
@@ -3576,34 +3685,58 @@
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="7">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>2022-08-24</t>
         </is>
       </c>
       <c r="B27" s="11" t="n">
-        <v>44797.92316747576</v>
-      </c>
-      <c r="C27" t="inlineStr">
+        <v>44797.92316747685</v>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>166_live</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>96</v>
-      </c>
-      <c r="E27" t="n">
-        <v>96</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="D27" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="7">
-      <c r="B28" s="9" t="n"/>
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>44818.41948943287</v>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>livehtfxsep166</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>2.56</v>
+      </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="7">
       <c r="B29" s="9" t="n"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -2141,6 +2141,195 @@
         <v>2.78</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B61" s="12" t="n">
+        <v>44844.62165931713</v>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>scndcycl168</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F61" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="6" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B62" s="12" t="n">
+        <v>44844.69733712963</v>
+      </c>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>scndcycl168</t>
+        </is>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="F62" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G62" s="6" t="n">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B63" s="12" t="n">
+        <v>44845.46226482639</v>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>168fnlrun</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F63" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" s="6" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B64" s="12" t="n">
+        <v>44867.68513745371</v>
+      </c>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>scndcycle169</t>
+        </is>
+      </c>
+      <c r="D64" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B65" s="12" t="n">
+        <v>44868.45144967593</v>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>finalrun169</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B66" s="12" t="n">
+        <v>44893.68616314815</v>
+      </c>
+      <c r="C66" s="6" t="inlineStr">
+        <is>
+          <t>170scndcycle</t>
+        </is>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B67" s="12" t="n">
+        <v>44893.69224168831</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>170scndcycle</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>98</v>
+      </c>
+      <c r="E67" t="n">
+        <v>98</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
@@ -2156,7 +2345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -2914,30 +3103,84 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
       <c r="B28" s="12" t="n">
-        <v>44824.52306395844</v>
-      </c>
-      <c r="C28" t="inlineStr">
+        <v>44824.52306395833</v>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>beta167</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>96</v>
-      </c>
-      <c r="E28" t="n">
-        <v>96</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="D28" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="n">
         <v>3.29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B29" s="12" t="n">
+        <v>44845.56182297454</v>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>beta168</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B30" s="12" t="n">
+        <v>44868.53728167824</v>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>beta169</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
@@ -2954,7 +3197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
@@ -3739,12 +3982,113 @@
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="7">
-      <c r="B29" s="9" t="n"/>
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>44824.8739475</v>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>live167</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>2.52</v>
+      </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="7">
-      <c r="B30" s="9" t="n"/>
-    </row>
-    <row r="31" ht="13.8" customHeight="1" s="7"/>
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>44845.85677435185</v>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>live168</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="31" ht="13.8" customHeight="1" s="7">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="n">
+        <v>44868.84576159722</v>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>live169</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="B32" s="12" t="n">
+        <v>44881.56333349537</v>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>htfxnov169</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
     <row r="1048569" ht="12.8" customHeight="1" s="7"/>
     <row r="1048570" ht="12.8" customHeight="1" s="7"/>
     <row r="1048571" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -2304,30 +2304,111 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="6" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
       <c r="B67" s="12" t="n">
-        <v>44893.69224168831</v>
-      </c>
-      <c r="C67" t="inlineStr">
+        <v>44893.69224168982</v>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
         <is>
           <t>170scndcycle</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="F67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="6" t="n">
         <v>2.58</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="B68" s="12" t="n">
+        <v>44914.4917868287</v>
+      </c>
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>finalrun171</t>
+        </is>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B69" s="12" t="n">
+        <v>44945.6911239699</v>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>scnd172release</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" s="6" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B70" s="12" t="n">
+        <v>44946.40841394676</v>
+      </c>
+      <c r="C70" s="6" t="inlineStr">
+        <is>
+          <t>finalrun172</t>
+        </is>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" s="6" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
@@ -2345,7 +2426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -3183,6 +3264,33 @@
         <v>2.36</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="n">
+        <v>44894.55115793982</v>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>170beta</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3197,7 +3305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
@@ -4087,6 +4195,87 @@
       </c>
       <c r="G32" s="6" t="n">
         <v>2.64</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="n">
+        <v>44894.89142375</v>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>170live</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="n">
+        <v>44896.76260797454</v>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>170htfxthu</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="n">
+        <v>44946.91931810293</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>172live</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>98</v>
+      </c>
+      <c r="E35" t="n">
+        <v>96</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -2411,6 +2411,33 @@
         <v>2.27</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B71" s="12" t="n">
+        <v>44977.41628445602</v>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>173fnlrun</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" s="6" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
@@ -2426,7 +2453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -3291,6 +3318,33 @@
         <v>2.73</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B32" s="12" t="n">
+        <v>44977.59682505787</v>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>173beta</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3305,7 +3359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
@@ -4252,30 +4306,57 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="6" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
       <c r="B35" s="12" t="n">
-        <v>44946.91931810293</v>
-      </c>
-      <c r="C35" t="inlineStr">
+        <v>44946.91931810185</v>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>172live</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="E35" t="n">
-        <v>96</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E35" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F35" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="6" t="n">
         <v>3.71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B36" s="12" t="n">
+        <v>44977.85398394011</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>live173</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>98</v>
+      </c>
+      <c r="E36" t="n">
+        <v>98</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -2438,6 +2438,114 @@
         <v>2.46</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="B72" s="12" t="n">
+        <v>44995.7993365625</v>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>174ffiinnalrun</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B73" s="12" t="n">
+        <v>44998.47907964121</v>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>174finalrun</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E73" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" s="6" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B74" s="12" t="n">
+        <v>45016.50046504629</v>
+      </c>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>175fnlrun</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" s="6" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B75" s="12" t="n">
+        <v>45028.71991263548</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>176fstrtail</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>98</v>
+      </c>
+      <c r="E75" t="n">
+        <v>98</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
@@ -2453,7 +2561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -3345,6 +3453,60 @@
         <v>2.55</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="n">
+        <v>44998.54316366898</v>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>174beta</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="n">
+        <v>45016.54965017361</v>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>175beta</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3359,7 +3521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
@@ -4333,30 +4495,84 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="6" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
       <c r="B36" s="12" t="n">
-        <v>44977.85398394011</v>
-      </c>
-      <c r="C36" t="inlineStr">
+        <v>44977.85398393519</v>
+      </c>
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>live173</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
         <v>2.68</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="n">
+        <v>44998.843680625</v>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>174live</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B38" s="12" t="n">
+        <v>45016.79857638889</v>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>175live</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>2.66</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -2520,30 +2520,57 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="6" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
       <c r="B75" s="12" t="n">
-        <v>45028.71991263548</v>
-      </c>
-      <c r="C75" t="inlineStr">
+        <v>45028.71991263889</v>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
         <is>
           <t>176fstrtail</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
+      <c r="F75" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="6" t="n">
         <v>2.42</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="n">
+        <v>45034.59438770518</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>176firsttrail</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>98</v>
+      </c>
+      <c r="E76" t="n">
+        <v>98</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -2547,30 +2547,84 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="6" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B76" s="12" t="n">
-        <v>45034.59438770518</v>
-      </c>
-      <c r="C76" t="inlineStr">
+        <v>45034.59438770833</v>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
         <is>
           <t>176firsttrail</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
+      <c r="F76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6" t="n">
         <v>2.72</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B77" s="12" t="n">
+        <v>45035.70692724537</v>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>176scndcyc</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E77" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F77" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" s="6" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B78" s="12" t="n">
+        <v>45036.41800693287</v>
+      </c>
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>176fnlruntest</t>
+        </is>
+      </c>
+      <c r="D78" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E78" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="6" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
@@ -2588,7 +2642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -3534,6 +3588,33 @@
         <v>2.54</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="n">
+        <v>45036.52671802083</v>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>176beta</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3548,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
@@ -4600,6 +4681,60 @@
       </c>
       <c r="G38" s="6" t="n">
         <v>2.66</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="n">
+        <v>45050.72132407407</v>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>176firstsycle</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="B40" s="12" t="n">
+        <v>45054.54746810317</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>176htfxtrl</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>98</v>
+      </c>
+      <c r="E40" t="n">
+        <v>98</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.37</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -2627,6 +2627,195 @@
         <v>3.06</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B79" s="12" t="n">
+        <v>45062.83169893519</v>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>177ffstcycle</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E79" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F79" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B80" s="12" t="n">
+        <v>45063.66886302083</v>
+      </c>
+      <c r="C80" s="6" t="inlineStr">
+        <is>
+          <t>177scncycle</t>
+        </is>
+      </c>
+      <c r="D80" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E80" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="6" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B81" s="12" t="n">
+        <v>45064.37712125</v>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>177fnlrun</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E81" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="6" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B82" s="12" t="n">
+        <v>45071.64260355324</v>
+      </c>
+      <c r="C82" s="6" t="inlineStr">
+        <is>
+          <t>178dayone</t>
+        </is>
+      </c>
+      <c r="D82" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E82" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F82" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B83" s="12" t="n">
+        <v>45072.57951315972</v>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>178daytwo</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E83" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F83" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="6" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B84" s="12" t="n">
+        <v>45075.49354561343</v>
+      </c>
+      <c r="C84" s="6" t="inlineStr">
+        <is>
+          <t>178daythree</t>
+        </is>
+      </c>
+      <c r="D84" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E84" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B85" s="12" t="n">
+        <v>45089.709941925</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>178daytest</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>98</v>
+      </c>
+      <c r="E85" t="n">
+        <v>98</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
@@ -2642,7 +2831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -3615,6 +3804,33 @@
         <v>2.75</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B36" s="12" t="n">
+        <v>45064.50885627315</v>
+      </c>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>177beta</t>
+        </is>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3629,7 +3845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
@@ -4711,30 +4927,57 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="6" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
       <c r="B40" s="12" t="n">
-        <v>45054.54746810317</v>
-      </c>
-      <c r="C40" t="inlineStr">
+        <v>45054.54746810185</v>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>176htfxtrl</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>98</v>
-      </c>
-      <c r="E40" t="n">
-        <v>98</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="D40" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="n">
         <v>2.37</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="n">
+        <v>45065.59342362268</v>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>177live</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>2.46</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -2790,30 +2790,57 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="6" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B85" s="12" t="n">
-        <v>45089.709941925</v>
-      </c>
-      <c r="C85" t="inlineStr">
+        <v>45089.7099419213</v>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
         <is>
           <t>178daytest</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>98</v>
-      </c>
-      <c r="E85" t="n">
-        <v>98</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
+      <c r="D85" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E85" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F85" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="6" t="n">
         <v>3.33</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B86" s="12" t="n">
+        <v>45138.40826564815</v>
+      </c>
+      <c r="C86" s="6" t="inlineStr">
+        <is>
+          <t>180fnlrun</t>
+        </is>
+      </c>
+      <c r="D86" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E86" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="6" t="n">
+        <v>2.46</v>
       </c>
     </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
@@ -2831,7 +2858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -3831,6 +3858,33 @@
         <v>3.07</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="n">
+        <v>45139.63674030093</v>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>180beta</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3845,7 +3899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
@@ -4978,6 +5032,33 @@
       </c>
       <c r="G41" s="6" t="n">
         <v>2.46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B42" s="12" t="n">
+        <v>45139.85384963385</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>180live</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>98</v>
+      </c>
+      <c r="E42" t="n">
+        <v>98</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -2843,6 +2843,492 @@
         <v>2.46</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B87" s="12" t="n">
+        <v>45203.45441880787</v>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>183fnlrun</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E87" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="6" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B88" s="12" t="n">
+        <v>45226.64712350695</v>
+      </c>
+      <c r="C88" s="6" t="inlineStr">
+        <is>
+          <t>183fstrun</t>
+        </is>
+      </c>
+      <c r="D88" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E88" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F88" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="6" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B89" s="12" t="n">
+        <v>45229.36862644676</v>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>184fnlrun</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E89" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F89" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="6" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B90" s="12" t="n">
+        <v>45259.34459298611</v>
+      </c>
+      <c r="C90" s="6" t="inlineStr">
+        <is>
+          <t>185lastcyc</t>
+        </is>
+      </c>
+      <c r="D90" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E90" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F90" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B91" s="12" t="n">
+        <v>45275.71047020833</v>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>186scndcycle</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E91" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F91" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="6" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B92" s="12" t="n">
+        <v>45278.43920600694</v>
+      </c>
+      <c r="C92" s="6" t="inlineStr">
+        <is>
+          <t>186fnlruun</t>
+        </is>
+      </c>
+      <c r="D92" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E92" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F92" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G92" s="6" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B93" s="12" t="n">
+        <v>45281.73094</v>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>smalvthapp111</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E93" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F93" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="6" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B94" s="12" t="n">
+        <v>45281.74253091435</v>
+      </c>
+      <c r="C94" s="6" t="inlineStr">
+        <is>
+          <t>smalvthapp111</t>
+        </is>
+      </c>
+      <c r="D94" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E94" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F94" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="6" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B95" s="12" t="n">
+        <v>45281.75824395833</v>
+      </c>
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>smalvthapp111</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E95" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F95" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" s="6" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B96" s="12" t="n">
+        <v>45300.63440638889</v>
+      </c>
+      <c r="C96" s="6" t="inlineStr">
+        <is>
+          <t>187scndcycle</t>
+        </is>
+      </c>
+      <c r="D96" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E96" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F96" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="6" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B97" s="12" t="n">
+        <v>45301.35760623842</v>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>187lstcycle</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E97" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F97" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="6" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B98" s="12" t="n">
+        <v>45323.67444996528</v>
+      </c>
+      <c r="C98" s="6" t="inlineStr">
+        <is>
+          <t>188firstcyc</t>
+        </is>
+      </c>
+      <c r="D98" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E98" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="F98" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="6" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B99" s="12" t="n">
+        <v>45324.85695128472</v>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>188scndcycle</t>
+        </is>
+      </c>
+      <c r="D99" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="F99" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G99" s="6" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B100" s="12" t="n">
+        <v>45327.43228556713</v>
+      </c>
+      <c r="C100" s="6" t="inlineStr">
+        <is>
+          <t>188lstrun</t>
+        </is>
+      </c>
+      <c r="D100" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E100" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F100" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="6" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B101" s="12" t="n">
+        <v>45344.61063930555</v>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
+        <is>
+          <t>188lstrun</t>
+        </is>
+      </c>
+      <c r="D101" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E101" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F101" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B102" s="12" t="n">
+        <v>45357.75043865741</v>
+      </c>
+      <c r="C102" s="6" t="inlineStr">
+        <is>
+          <t>189ffstccycle</t>
+        </is>
+      </c>
+      <c r="D102" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E102" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F102" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="6" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B103" s="12" t="n">
+        <v>45358.61766768518</v>
+      </c>
+      <c r="C103" s="6" t="inlineStr">
+        <is>
+          <t>189scncycle</t>
+        </is>
+      </c>
+      <c r="D103" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E103" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F103" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="6" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B104" s="12" t="n">
+        <v>45359.38039446759</v>
+      </c>
+      <c r="C104" s="6" t="inlineStr">
+        <is>
+          <t>189fnlrun</t>
+        </is>
+      </c>
+      <c r="D104" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E104" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F104" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="6" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
@@ -2858,7 +3344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -3885,6 +4371,195 @@
         <v>3.6</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B38" s="12" t="n">
+        <v>45203.5607243287</v>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>183beta</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="n">
+        <v>45229.60938884259</v>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>184beta</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B40" s="12" t="n">
+        <v>45259.62246457176</v>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>185beta</t>
+        </is>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="n">
+        <v>45278.54766224537</v>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>186beta</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B42" s="12" t="n">
+        <v>45301.58181456019</v>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>187betaa</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="n">
+        <v>45327.56609568287</v>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>188beta</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B44" s="12" t="n">
+        <v>45359.47168932957</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>189beta</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>98</v>
+      </c>
+      <c r="E44" t="n">
+        <v>98</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3899,7 +4574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
@@ -5035,30 +5710,219 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B42" s="12" t="n">
-        <v>45139.85384963385</v>
-      </c>
-      <c r="C42" t="inlineStr">
+        <v>45139.85384962963</v>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>180live</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>98</v>
-      </c>
-      <c r="E42" t="n">
-        <v>98</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="D42" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="n">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="n">
+        <v>45203.91388736111</v>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>183live</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B44" s="12" t="n">
+        <v>45217.61614709491</v>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>183waf</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="n">
+        <v>45229.83688247685</v>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>184lliivvee</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B46" s="12" t="n">
+        <v>45259.88402209491</v>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>185live</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="n">
+        <v>45279.52726670139</v>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>186livvee</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>539.58</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B48" s="12" t="n">
+        <v>45301.85652869213</v>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>187live</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="n">
+        <v>45327.90942399306</v>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>188live</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -3329,6 +3329,114 @@
         <v>2.68</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="6" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B105" s="12" t="n">
+        <v>45380.42393400463</v>
+      </c>
+      <c r="C105" s="6" t="inlineStr">
+        <is>
+          <t>190fstcycle</t>
+        </is>
+      </c>
+      <c r="D105" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E105" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F105" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" s="6" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B106" s="12" t="n">
+        <v>45383.38841695602</v>
+      </c>
+      <c r="C106" s="6" t="inlineStr">
+        <is>
+          <t>190fnlrun</t>
+        </is>
+      </c>
+      <c r="D106" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E106" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F106" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" s="6" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B107" s="12" t="n">
+        <v>45414.51346655092</v>
+      </c>
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>191fstcycle</t>
+        </is>
+      </c>
+      <c r="D107" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E107" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F107" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="6" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="6" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B108" s="12" t="n">
+        <v>45415.3641175463</v>
+      </c>
+      <c r="C108" s="6" t="inlineStr">
+        <is>
+          <t>191lstrun</t>
+        </is>
+      </c>
+      <c r="D108" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E108" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F108" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="6" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
@@ -3344,7 +3452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -4534,30 +4642,84 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="6" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
       <c r="B44" s="12" t="n">
-        <v>45359.47168932957</v>
-      </c>
-      <c r="C44" t="inlineStr">
+        <v>45359.4716893287</v>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>189beta</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>98</v>
-      </c>
-      <c r="E44" t="n">
-        <v>98</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="D44" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6" t="n">
         <v>2.62</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="n">
+        <v>45383.55261703704</v>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>190betatest</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B46" s="12" t="n">
+        <v>45415.63061560027</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>191beta</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>98</v>
+      </c>
+      <c r="E46" t="n">
+        <v>98</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
@@ -4574,7 +4736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
@@ -5923,6 +6085,33 @@
       </c>
       <c r="G49" s="6" t="n">
         <v>2.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B50" s="12" t="n">
+        <v>45383.87003173611</v>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>190livee</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -4696,29 +4696,29 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="6" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
       <c r="B46" s="12" t="n">
-        <v>45415.63061560027</v>
-      </c>
-      <c r="C46" t="inlineStr">
+        <v>45415.63061560185</v>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
         <is>
           <t>191beta</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>98</v>
-      </c>
-      <c r="E46" t="n">
-        <v>98</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="D46" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="n">
         <v>2.7</v>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
@@ -6112,6 +6112,33 @@
       </c>
       <c r="G50" s="6" t="n">
         <v>2.77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="n">
+        <v>45418.58361913489</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>191live</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>98</v>
+      </c>
+      <c r="E51" t="n">
+        <v>98</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.61</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -4736,7 +4736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
@@ -6115,30 +6115,57 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="6" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B51" s="12" t="n">
-        <v>45418.58361913489</v>
-      </c>
-      <c r="C51" t="inlineStr">
+        <v>45418.58361913195</v>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>191live</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>98</v>
-      </c>
-      <c r="E51" t="n">
-        <v>98</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="D51" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6" t="n">
         <v>2.61</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B52" s="12" t="n">
+        <v>45467.67324243434</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>193livepytest</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>98</v>
+      </c>
+      <c r="E52" t="n">
+        <v>98</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="1048569" ht="12.8" customHeight="1" s="7"/>

--- a/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/QUICK_INTERVIEW_HISTORY_DATA.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
@@ -3437,6 +3437,87 @@
         <v>2.57</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B109" s="12" t="n">
+        <v>45489.65838729167</v>
+      </c>
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>194fstcycle</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E109" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F109" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" s="6" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B110" s="12" t="n">
+        <v>45490.76391390046</v>
+      </c>
+      <c r="C110" s="6" t="inlineStr">
+        <is>
+          <t>194scncycle</t>
+        </is>
+      </c>
+      <c r="D110" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E110" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F110" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" s="6" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B111" s="12" t="n">
+        <v>45491.32160244213</v>
+      </c>
+      <c r="C111" s="6" t="inlineStr">
+        <is>
+          <t>194fnlrun</t>
+        </is>
+      </c>
+      <c r="D111" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E111" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F111" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
     <row r="1048575" ht="12.8" customHeight="1" s="7"/>
     <row r="1048576" ht="12.8" customHeight="1" s="7"/>
   </sheetData>
@@ -3452,7 +3533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
@@ -4720,6 +4801,33 @@
       </c>
       <c r="G46" s="6" t="n">
         <v>2.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="n">
+        <v>45491.61375446631</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>98</v>
+      </c>
+      <c r="E47" t="n">
+        <v>98</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.59</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="7"/>
@@ -6142,29 +6250,29 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="6" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
       <c r="B52" s="12" t="n">
-        <v>45467.67324243434</v>
-      </c>
-      <c r="C52" t="inlineStr">
+        <v>45467.67324243056</v>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>193livepytest</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>98</v>
-      </c>
-      <c r="E52" t="n">
-        <v>98</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="D52" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6" t="n">
         <v>2.77</v>
       </c>
     </row>
